--- a/result/topic_prop_neg.xlsx
+++ b/result/topic_prop_neg.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.059*"구매" + 0.052*"돈" + 0.045*"밴드" + 0.033*"등록" + 0.028*"식단" + 0.025*"어플" + 0.024*"물건" + 0.019*"관리" + 0.015*"카카오" + 0.014*"가격"</t>
+          <t>0.069*"오류" + 0.048*"사진" + 0.038*"다시" + 0.027*"물" + 0.022*"게시" + 0.022*"계정" + 0.021*"차단" + 0.017*"댓글" + 0.016*"업데이트" + 0.014*"선택"</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.076*"다시" + 0.066*"설치" + 0.061*"삭제" + 0.036*"종료" + 0.032*"계정" + 0.030*"어플" + 0.030*"업데이트" + 0.027*"실행" + 0.026*"화면" + 0.019*"버튼"</t>
+          <t>0.071*"사진" + 0.029*"업데이트" + 0.027*"버그" + 0.024*"인스타" + 0.022*"게시" + 0.019*"스레드" + 0.015*"추천" + 0.015*"신고" + 0.015*"로그아웃" + 0.015*"추가"</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.118*"로그인" + 0.033*"보기" + 0.028*"일기" + 0.027*"다시" + 0.022*"최악" + 0.019*"안" + 0.019*"작동" + 0.018*"아이디" + 0.017*"체크" + 0.016*"비번"</t>
+          <t>0.050*"사진" + 0.040*"저장" + 0.039*"몇번" + 0.032*"다시" + 0.024*"수정" + 0.017*"오류" + 0.016*"이미지" + 0.016*"디엠" + 0.016*"편집" + 0.016*"반복"</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.116*"모드" + 0.107*"동기화" + 0.036*"웨어" + 0.032*"러블" + 0.026*"갤럭시" + 0.019*"연동" + 0.015*"시계" + 0.013*"사용자" + 0.012*"터치" + 0.010*"엉망"</t>
+          <t>0.050*"안" + 0.044*"노래" + 0.043*"영상" + 0.029*"오류" + 0.028*"동영상" + 0.020*"검색" + 0.017*"릴스" + 0.016*"스티커" + 0.016*"스토리" + 0.016*"피드"</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.128*"업데이트" + 0.049*"알림" + 0.047*"설정" + 0.033*"알람" + 0.029*"배터리" + 0.026*"전혀" + 0.024*"전화" + 0.023*"연동" + 0.022*"안" + 0.017*"밴드"</t>
+          <t>0.073*"게시" + 0.050*"동영상" + 0.046*"저장" + 0.043*"물" + 0.032*"자꾸" + 0.028*"자동" + 0.019*"팔로우" + 0.019*"사진" + 0.019*"삭제" + 0.019*"상태"</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.133*"회원" + 0.087*"가입" + 0.037*"탈퇴" + 0.031*"입력" + 0.023*"설정" + 0.019*"계정" + 0.019*"선택" + 0.019*"성별" + 0.018*"화면" + 0.017*"검색"</t>
+          <t>0.042*"광고" + 0.035*"게시" + 0.035*"검색" + 0.028*"다시" + 0.021*"사진" + 0.021*"물" + 0.021*"스토리" + 0.021*"추가" + 0.021*"영상" + 0.021*"댓글"</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.105*"운동" + 0.091*"기록" + 0.051*"광고" + 0.036*"칼로리" + 0.033*"음식" + 0.024*"저장" + 0.018*"입력" + 0.017*"별로" + 0.014*"수정" + 0.014*"삭제"</t>
+          <t>0.062*"계정" + 0.043*"릴스" + 0.037*"오류" + 0.036*"메모" + 0.024*"다시" + 0.023*"해결" + 0.023*"인스타" + 0.019*"갑자기" + 0.016*"새로고침" + 0.016*"문의"</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.077*"연동" + 0.062*"걸음" + 0.047*"체중" + 0.029*"문제" + 0.026*"측정" + 0.022*"갑자기" + 0.020*"업데이트" + 0.018*"아예" + 0.017*"어플" + 0.017*"블루투스"</t>
+          <t>0.072*"사진" + 0.048*"아예" + 0.040*"알림" + 0.039*"스토리" + 0.025*"추가" + 0.025*"추천" + 0.025*"인스타" + 0.017*"수정" + 0.017*"화면" + 0.017*"활동"</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.181*"오류" + 0.060*"실행" + 0.049*"업데이트" + 0.041*"중지" + 0.041*"수정" + 0.028*"어플" + 0.024*"자꾸" + 0.017*"다운로드" + 0.014*"발생" + 0.014*"쓰레기"</t>
+          <t>0.025*"다시" + 0.025*"문제" + 0.017*"검색" + 0.017*"번역" + 0.017*"인스타" + 0.017*"수정" + 0.017*"현상" + 0.017*"해시태그" + 0.017*"배경" + 0.017*"메타"</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.177*"결제" + 0.109*"환불" + 0.080*"취소" + 0.067*"자동" + 0.035*"요구" + 0.029*"무료" + 0.026*"구독" + 0.023*"유료" + 0.022*"요청" + 0.015*"확인"</t>
+          <t>0.095*"물" + 0.086*"게시" + 0.031*"인기" + 0.024*"물이" + 0.018*"인스타" + 0.018*"광고" + 0.018*"하트" + 0.018*"알림" + 0.018*"플루" + 0.018*"오류"</t>
         </is>
       </c>
     </row>

--- a/result/topic_prop_neg.xlsx
+++ b/result/topic_prop_neg.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.069*"오류" + 0.048*"사진" + 0.038*"다시" + 0.027*"물" + 0.022*"게시" + 0.022*"계정" + 0.021*"차단" + 0.017*"댓글" + 0.016*"업데이트" + 0.014*"선택"</t>
+          <t>0.051*"음악" + 0.021*"게시" + 0.021*"자꾸" + 0.021*"사진" + 0.021*"업데이트" + 0.021*"릴스" + 0.021*"인스타" + 0.021*"광고" + 0.016*"프로필" + 0.016*"인기"</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.071*"사진" + 0.029*"업데이트" + 0.027*"버그" + 0.024*"인스타" + 0.022*"게시" + 0.019*"스레드" + 0.015*"추천" + 0.015*"신고" + 0.015*"로그아웃" + 0.015*"추가"</t>
+          <t>0.041*"인스타" + 0.029*"사진" + 0.029*"인기" + 0.029*"선택" + 0.022*"광고" + 0.022*"알림" + 0.022*"개선" + 0.022*"소개" + 0.015*"이해" + 0.015*"모든"</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.050*"사진" + 0.040*"저장" + 0.039*"몇번" + 0.032*"다시" + 0.024*"수정" + 0.017*"오류" + 0.016*"이미지" + 0.016*"디엠" + 0.016*"편집" + 0.016*"반복"</t>
+          <t>0.065*"사진" + 0.063*"게시" + 0.044*"다시" + 0.030*"오류" + 0.028*"수정" + 0.024*"저장" + 0.020*"삭제" + 0.017*"동영상" + 0.017*"개선" + 0.015*"인스타"</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.050*"안" + 0.044*"노래" + 0.043*"영상" + 0.029*"오류" + 0.028*"동영상" + 0.020*"검색" + 0.017*"릴스" + 0.016*"스티커" + 0.016*"스토리" + 0.016*"피드"</t>
+          <t>0.064*"노래" + 0.040*"메모" + 0.035*"업데이트" + 0.031*"인스타" + 0.028*"스토리" + 0.027*"게시" + 0.021*"오류" + 0.014*"다시" + 0.014*"편집" + 0.014*"삭제"</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.073*"게시" + 0.050*"동영상" + 0.046*"저장" + 0.043*"물" + 0.032*"자꾸" + 0.028*"자동" + 0.019*"팔로우" + 0.019*"사진" + 0.019*"삭제" + 0.019*"상태"</t>
+          <t>0.075*"게시" + 0.037*"추천" + 0.028*"아예" + 0.024*"메모" + 0.024*"활동" + 0.024*"물이" + 0.023*"다시" + 0.019*"업데이트" + 0.019*"오류" + 0.019*"사진"</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.042*"광고" + 0.035*"게시" + 0.035*"검색" + 0.028*"다시" + 0.021*"사진" + 0.021*"물" + 0.021*"스토리" + 0.021*"추가" + 0.021*"영상" + 0.021*"댓글"</t>
+          <t>0.056*"오류" + 0.028*"업데이트" + 0.021*"이미지" + 0.021*"로그인" + 0.021*"추가" + 0.014*"댓글" + 0.014*"스토리" + 0.014*"계정" + 0.014*"영상" + 0.014*"메시지"</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.062*"계정" + 0.043*"릴스" + 0.037*"오류" + 0.036*"메모" + 0.024*"다시" + 0.023*"해결" + 0.023*"인스타" + 0.019*"갑자기" + 0.016*"새로고침" + 0.016*"문의"</t>
+          <t>0.026*"인스타" + 0.026*"프로필" + 0.022*"삭제" + 0.022*"갑자기" + 0.018*"거꾸로" + 0.018*"자꾸" + 0.018*"표시" + 0.018*"통화" + 0.018*"오류" + 0.018*"설치"</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.072*"사진" + 0.048*"아예" + 0.040*"알림" + 0.039*"스토리" + 0.025*"추가" + 0.025*"추천" + 0.025*"인스타" + 0.017*"수정" + 0.017*"화면" + 0.017*"활동"</t>
+          <t>0.047*"사진" + 0.032*"해도" + 0.032*"오류" + 0.025*"게시" + 0.024*"선택" + 0.024*"도대체" + 0.016*"글씨" + 0.016*"실행" + 0.016*"새로고침" + 0.016*"업로드"</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.025*"다시" + 0.025*"문제" + 0.017*"검색" + 0.017*"번역" + 0.017*"인스타" + 0.017*"수정" + 0.017*"현상" + 0.017*"해시태그" + 0.017*"배경" + 0.017*"메타"</t>
+          <t>0.048*"인스타" + 0.032*"페메" + 0.032*"스레드" + 0.017*"오류" + 0.017*"댓글" + 0.017*"배경" + 0.017*"번역" + 0.017*"뱅글" + 0.017*"아예" + 0.017*"부계"</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.095*"물" + 0.086*"게시" + 0.031*"인기" + 0.024*"물이" + 0.018*"인스타" + 0.018*"광고" + 0.018*"하트" + 0.018*"알림" + 0.018*"플루" + 0.018*"오류"</t>
+          <t>0.063*"영상" + 0.029*"업데이트" + 0.029*"동영상" + 0.028*"버그" + 0.024*"인스타" + 0.024*"디엠" + 0.023*"업로드" + 0.017*"피드" + 0.014*"해결" + 0.012*"인스타그램"</t>
         </is>
       </c>
     </row>
